--- a/SQL/Microsoft SQL Server Basics/34. SQL Data Types/SQL+Data+Types.xlsx
+++ b/SQL/Microsoft SQL Server Basics/34. SQL Data Types/SQL+Data+Types.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\topna\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DC_DDS_02\SQL\Microsoft SQL Server Basics\34. SQL Data Types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A565A6FE-5274-493A-B1BF-A7CABCE1F5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C319CDBB-3666-44DE-944D-C955A9BD6EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,9 +360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
